--- a/sequences/07_retrieval_2.xlsx
+++ b/sequences/07_retrieval_2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1677" uniqueCount="473">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2189" uniqueCount="473">
   <si>
     <t>word</t>
   </si>
@@ -1856,6 +1856,30 @@
       <c r="F2" t="s">
         <v>205</v>
       </c>
+      <c r="G2" t="s">
+        <v>205</v>
+      </c>
+      <c r="H2" t="s">
+        <v>205</v>
+      </c>
+      <c r="I2" t="s">
+        <v>205</v>
+      </c>
+      <c r="J2" t="s">
+        <v>205</v>
+      </c>
+      <c r="K2" t="s">
+        <v>205</v>
+      </c>
+      <c r="L2" t="s">
+        <v>205</v>
+      </c>
+      <c r="M2" t="s">
+        <v>205</v>
+      </c>
+      <c r="N2" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1">
@@ -1920,6 +1944,30 @@
       <c r="F4" t="s">
         <v>205</v>
       </c>
+      <c r="G4" t="s">
+        <v>205</v>
+      </c>
+      <c r="H4" t="s">
+        <v>205</v>
+      </c>
+      <c r="I4" t="s">
+        <v>205</v>
+      </c>
+      <c r="J4" t="s">
+        <v>205</v>
+      </c>
+      <c r="K4" t="s">
+        <v>205</v>
+      </c>
+      <c r="L4" t="s">
+        <v>205</v>
+      </c>
+      <c r="M4" t="s">
+        <v>205</v>
+      </c>
+      <c r="N4" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="1">
@@ -2072,6 +2120,30 @@
       <c r="F8" t="s">
         <v>205</v>
       </c>
+      <c r="G8" t="s">
+        <v>205</v>
+      </c>
+      <c r="H8" t="s">
+        <v>205</v>
+      </c>
+      <c r="I8" t="s">
+        <v>205</v>
+      </c>
+      <c r="J8" t="s">
+        <v>205</v>
+      </c>
+      <c r="K8" t="s">
+        <v>205</v>
+      </c>
+      <c r="L8" t="s">
+        <v>205</v>
+      </c>
+      <c r="M8" t="s">
+        <v>205</v>
+      </c>
+      <c r="N8" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="1">
@@ -2092,6 +2164,30 @@
       <c r="F9" t="s">
         <v>205</v>
       </c>
+      <c r="G9" t="s">
+        <v>205</v>
+      </c>
+      <c r="H9" t="s">
+        <v>205</v>
+      </c>
+      <c r="I9" t="s">
+        <v>205</v>
+      </c>
+      <c r="J9" t="s">
+        <v>205</v>
+      </c>
+      <c r="K9" t="s">
+        <v>205</v>
+      </c>
+      <c r="L9" t="s">
+        <v>205</v>
+      </c>
+      <c r="M9" t="s">
+        <v>205</v>
+      </c>
+      <c r="N9" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="1">
@@ -2200,6 +2296,30 @@
       <c r="F12" t="s">
         <v>205</v>
       </c>
+      <c r="G12" t="s">
+        <v>205</v>
+      </c>
+      <c r="H12" t="s">
+        <v>205</v>
+      </c>
+      <c r="I12" t="s">
+        <v>205</v>
+      </c>
+      <c r="J12" t="s">
+        <v>205</v>
+      </c>
+      <c r="K12" t="s">
+        <v>205</v>
+      </c>
+      <c r="L12" t="s">
+        <v>205</v>
+      </c>
+      <c r="M12" t="s">
+        <v>205</v>
+      </c>
+      <c r="N12" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="1">
@@ -2308,6 +2428,30 @@
       <c r="F15" t="s">
         <v>205</v>
       </c>
+      <c r="G15" t="s">
+        <v>205</v>
+      </c>
+      <c r="H15" t="s">
+        <v>205</v>
+      </c>
+      <c r="I15" t="s">
+        <v>205</v>
+      </c>
+      <c r="J15" t="s">
+        <v>205</v>
+      </c>
+      <c r="K15" t="s">
+        <v>205</v>
+      </c>
+      <c r="L15" t="s">
+        <v>205</v>
+      </c>
+      <c r="M15" t="s">
+        <v>205</v>
+      </c>
+      <c r="N15" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="16" spans="1:14">
       <c r="A16" s="1">
@@ -2372,6 +2516,30 @@
       <c r="F17" t="s">
         <v>205</v>
       </c>
+      <c r="G17" t="s">
+        <v>205</v>
+      </c>
+      <c r="H17" t="s">
+        <v>205</v>
+      </c>
+      <c r="I17" t="s">
+        <v>205</v>
+      </c>
+      <c r="J17" t="s">
+        <v>205</v>
+      </c>
+      <c r="K17" t="s">
+        <v>205</v>
+      </c>
+      <c r="L17" t="s">
+        <v>205</v>
+      </c>
+      <c r="M17" t="s">
+        <v>205</v>
+      </c>
+      <c r="N17" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="18" spans="1:14">
       <c r="A18" s="1">
@@ -2392,6 +2560,30 @@
       <c r="F18" t="s">
         <v>205</v>
       </c>
+      <c r="G18" t="s">
+        <v>205</v>
+      </c>
+      <c r="H18" t="s">
+        <v>205</v>
+      </c>
+      <c r="I18" t="s">
+        <v>205</v>
+      </c>
+      <c r="J18" t="s">
+        <v>205</v>
+      </c>
+      <c r="K18" t="s">
+        <v>205</v>
+      </c>
+      <c r="L18" t="s">
+        <v>205</v>
+      </c>
+      <c r="M18" t="s">
+        <v>205</v>
+      </c>
+      <c r="N18" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="19" spans="1:14">
       <c r="A19" s="1">
@@ -2500,6 +2692,30 @@
       <c r="F21" t="s">
         <v>205</v>
       </c>
+      <c r="G21" t="s">
+        <v>205</v>
+      </c>
+      <c r="H21" t="s">
+        <v>205</v>
+      </c>
+      <c r="I21" t="s">
+        <v>205</v>
+      </c>
+      <c r="J21" t="s">
+        <v>205</v>
+      </c>
+      <c r="K21" t="s">
+        <v>205</v>
+      </c>
+      <c r="L21" t="s">
+        <v>205</v>
+      </c>
+      <c r="M21" t="s">
+        <v>205</v>
+      </c>
+      <c r="N21" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="22" spans="1:14">
       <c r="A22" s="1">
@@ -2608,6 +2824,30 @@
       <c r="F24" t="s">
         <v>205</v>
       </c>
+      <c r="G24" t="s">
+        <v>205</v>
+      </c>
+      <c r="H24" t="s">
+        <v>205</v>
+      </c>
+      <c r="I24" t="s">
+        <v>205</v>
+      </c>
+      <c r="J24" t="s">
+        <v>205</v>
+      </c>
+      <c r="K24" t="s">
+        <v>205</v>
+      </c>
+      <c r="L24" t="s">
+        <v>205</v>
+      </c>
+      <c r="M24" t="s">
+        <v>205</v>
+      </c>
+      <c r="N24" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="25" spans="1:14">
       <c r="A25" s="1">
@@ -2848,6 +3088,30 @@
       <c r="F30" t="s">
         <v>205</v>
       </c>
+      <c r="G30" t="s">
+        <v>205</v>
+      </c>
+      <c r="H30" t="s">
+        <v>205</v>
+      </c>
+      <c r="I30" t="s">
+        <v>205</v>
+      </c>
+      <c r="J30" t="s">
+        <v>205</v>
+      </c>
+      <c r="K30" t="s">
+        <v>205</v>
+      </c>
+      <c r="L30" t="s">
+        <v>205</v>
+      </c>
+      <c r="M30" t="s">
+        <v>205</v>
+      </c>
+      <c r="N30" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="31" spans="1:14">
       <c r="A31" s="1">
@@ -3000,6 +3264,30 @@
       <c r="F34" t="s">
         <v>205</v>
       </c>
+      <c r="G34" t="s">
+        <v>205</v>
+      </c>
+      <c r="H34" t="s">
+        <v>205</v>
+      </c>
+      <c r="I34" t="s">
+        <v>205</v>
+      </c>
+      <c r="J34" t="s">
+        <v>205</v>
+      </c>
+      <c r="K34" t="s">
+        <v>205</v>
+      </c>
+      <c r="L34" t="s">
+        <v>205</v>
+      </c>
+      <c r="M34" t="s">
+        <v>205</v>
+      </c>
+      <c r="N34" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="35" spans="1:14">
       <c r="A35" s="1">
@@ -3020,6 +3308,30 @@
       <c r="F35" t="s">
         <v>205</v>
       </c>
+      <c r="G35" t="s">
+        <v>205</v>
+      </c>
+      <c r="H35" t="s">
+        <v>205</v>
+      </c>
+      <c r="I35" t="s">
+        <v>205</v>
+      </c>
+      <c r="J35" t="s">
+        <v>205</v>
+      </c>
+      <c r="K35" t="s">
+        <v>205</v>
+      </c>
+      <c r="L35" t="s">
+        <v>205</v>
+      </c>
+      <c r="M35" t="s">
+        <v>205</v>
+      </c>
+      <c r="N35" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="36" spans="1:14">
       <c r="A36" s="1">
@@ -3040,6 +3352,30 @@
       <c r="F36" t="s">
         <v>205</v>
       </c>
+      <c r="G36" t="s">
+        <v>205</v>
+      </c>
+      <c r="H36" t="s">
+        <v>205</v>
+      </c>
+      <c r="I36" t="s">
+        <v>205</v>
+      </c>
+      <c r="J36" t="s">
+        <v>205</v>
+      </c>
+      <c r="K36" t="s">
+        <v>205</v>
+      </c>
+      <c r="L36" t="s">
+        <v>205</v>
+      </c>
+      <c r="M36" t="s">
+        <v>205</v>
+      </c>
+      <c r="N36" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="37" spans="1:14">
       <c r="A37" s="1">
@@ -3060,6 +3396,30 @@
       <c r="F37" t="s">
         <v>205</v>
       </c>
+      <c r="G37" t="s">
+        <v>205</v>
+      </c>
+      <c r="H37" t="s">
+        <v>205</v>
+      </c>
+      <c r="I37" t="s">
+        <v>205</v>
+      </c>
+      <c r="J37" t="s">
+        <v>205</v>
+      </c>
+      <c r="K37" t="s">
+        <v>205</v>
+      </c>
+      <c r="L37" t="s">
+        <v>205</v>
+      </c>
+      <c r="M37" t="s">
+        <v>205</v>
+      </c>
+      <c r="N37" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="38" spans="1:14">
       <c r="A38" s="1">
@@ -3124,6 +3484,30 @@
       <c r="F39" t="s">
         <v>205</v>
       </c>
+      <c r="G39" t="s">
+        <v>205</v>
+      </c>
+      <c r="H39" t="s">
+        <v>205</v>
+      </c>
+      <c r="I39" t="s">
+        <v>205</v>
+      </c>
+      <c r="J39" t="s">
+        <v>205</v>
+      </c>
+      <c r="K39" t="s">
+        <v>205</v>
+      </c>
+      <c r="L39" t="s">
+        <v>205</v>
+      </c>
+      <c r="M39" t="s">
+        <v>205</v>
+      </c>
+      <c r="N39" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="40" spans="1:14">
       <c r="A40" s="1">
@@ -3276,6 +3660,30 @@
       <c r="F43" t="s">
         <v>205</v>
       </c>
+      <c r="G43" t="s">
+        <v>205</v>
+      </c>
+      <c r="H43" t="s">
+        <v>205</v>
+      </c>
+      <c r="I43" t="s">
+        <v>205</v>
+      </c>
+      <c r="J43" t="s">
+        <v>205</v>
+      </c>
+      <c r="K43" t="s">
+        <v>205</v>
+      </c>
+      <c r="L43" t="s">
+        <v>205</v>
+      </c>
+      <c r="M43" t="s">
+        <v>205</v>
+      </c>
+      <c r="N43" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="44" spans="1:14">
       <c r="A44" s="1">
@@ -3384,6 +3792,30 @@
       <c r="F46" t="s">
         <v>205</v>
       </c>
+      <c r="G46" t="s">
+        <v>205</v>
+      </c>
+      <c r="H46" t="s">
+        <v>205</v>
+      </c>
+      <c r="I46" t="s">
+        <v>205</v>
+      </c>
+      <c r="J46" t="s">
+        <v>205</v>
+      </c>
+      <c r="K46" t="s">
+        <v>205</v>
+      </c>
+      <c r="L46" t="s">
+        <v>205</v>
+      </c>
+      <c r="M46" t="s">
+        <v>205</v>
+      </c>
+      <c r="N46" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="47" spans="1:14">
       <c r="A47" s="1">
@@ -3404,6 +3836,30 @@
       <c r="F47" t="s">
         <v>205</v>
       </c>
+      <c r="G47" t="s">
+        <v>205</v>
+      </c>
+      <c r="H47" t="s">
+        <v>205</v>
+      </c>
+      <c r="I47" t="s">
+        <v>205</v>
+      </c>
+      <c r="J47" t="s">
+        <v>205</v>
+      </c>
+      <c r="K47" t="s">
+        <v>205</v>
+      </c>
+      <c r="L47" t="s">
+        <v>205</v>
+      </c>
+      <c r="M47" t="s">
+        <v>205</v>
+      </c>
+      <c r="N47" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="48" spans="1:14">
       <c r="A48" s="1">
@@ -3468,6 +3924,30 @@
       <c r="F49" t="s">
         <v>205</v>
       </c>
+      <c r="G49" t="s">
+        <v>205</v>
+      </c>
+      <c r="H49" t="s">
+        <v>205</v>
+      </c>
+      <c r="I49" t="s">
+        <v>205</v>
+      </c>
+      <c r="J49" t="s">
+        <v>205</v>
+      </c>
+      <c r="K49" t="s">
+        <v>205</v>
+      </c>
+      <c r="L49" t="s">
+        <v>205</v>
+      </c>
+      <c r="M49" t="s">
+        <v>205</v>
+      </c>
+      <c r="N49" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="50" spans="1:14">
       <c r="A50" s="1">
@@ -3488,6 +3968,30 @@
       <c r="F50" t="s">
         <v>205</v>
       </c>
+      <c r="G50" t="s">
+        <v>205</v>
+      </c>
+      <c r="H50" t="s">
+        <v>205</v>
+      </c>
+      <c r="I50" t="s">
+        <v>205</v>
+      </c>
+      <c r="J50" t="s">
+        <v>205</v>
+      </c>
+      <c r="K50" t="s">
+        <v>205</v>
+      </c>
+      <c r="L50" t="s">
+        <v>205</v>
+      </c>
+      <c r="M50" t="s">
+        <v>205</v>
+      </c>
+      <c r="N50" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="51" spans="1:14">
       <c r="A51" s="1">
@@ -3596,6 +4100,30 @@
       <c r="F53" t="s">
         <v>205</v>
       </c>
+      <c r="G53" t="s">
+        <v>205</v>
+      </c>
+      <c r="H53" t="s">
+        <v>205</v>
+      </c>
+      <c r="I53" t="s">
+        <v>205</v>
+      </c>
+      <c r="J53" t="s">
+        <v>205</v>
+      </c>
+      <c r="K53" t="s">
+        <v>205</v>
+      </c>
+      <c r="L53" t="s">
+        <v>205</v>
+      </c>
+      <c r="M53" t="s">
+        <v>205</v>
+      </c>
+      <c r="N53" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="54" spans="1:14">
       <c r="A54" s="1">
@@ -3704,6 +4232,30 @@
       <c r="F56" t="s">
         <v>205</v>
       </c>
+      <c r="G56" t="s">
+        <v>205</v>
+      </c>
+      <c r="H56" t="s">
+        <v>205</v>
+      </c>
+      <c r="I56" t="s">
+        <v>205</v>
+      </c>
+      <c r="J56" t="s">
+        <v>205</v>
+      </c>
+      <c r="K56" t="s">
+        <v>205</v>
+      </c>
+      <c r="L56" t="s">
+        <v>205</v>
+      </c>
+      <c r="M56" t="s">
+        <v>205</v>
+      </c>
+      <c r="N56" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="57" spans="1:14">
       <c r="A57" s="1">
@@ -3768,6 +4320,30 @@
       <c r="F58" t="s">
         <v>205</v>
       </c>
+      <c r="G58" t="s">
+        <v>205</v>
+      </c>
+      <c r="H58" t="s">
+        <v>205</v>
+      </c>
+      <c r="I58" t="s">
+        <v>205</v>
+      </c>
+      <c r="J58" t="s">
+        <v>205</v>
+      </c>
+      <c r="K58" t="s">
+        <v>205</v>
+      </c>
+      <c r="L58" t="s">
+        <v>205</v>
+      </c>
+      <c r="M58" t="s">
+        <v>205</v>
+      </c>
+      <c r="N58" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="59" spans="1:14">
       <c r="A59" s="1">
@@ -4052,6 +4628,30 @@
       <c r="F65" t="s">
         <v>205</v>
       </c>
+      <c r="G65" t="s">
+        <v>205</v>
+      </c>
+      <c r="H65" t="s">
+        <v>205</v>
+      </c>
+      <c r="I65" t="s">
+        <v>205</v>
+      </c>
+      <c r="J65" t="s">
+        <v>205</v>
+      </c>
+      <c r="K65" t="s">
+        <v>205</v>
+      </c>
+      <c r="L65" t="s">
+        <v>205</v>
+      </c>
+      <c r="M65" t="s">
+        <v>205</v>
+      </c>
+      <c r="N65" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="66" spans="1:14">
       <c r="A66" s="1">
@@ -4160,6 +4760,30 @@
       <c r="F68" t="s">
         <v>205</v>
       </c>
+      <c r="G68" t="s">
+        <v>205</v>
+      </c>
+      <c r="H68" t="s">
+        <v>205</v>
+      </c>
+      <c r="I68" t="s">
+        <v>205</v>
+      </c>
+      <c r="J68" t="s">
+        <v>205</v>
+      </c>
+      <c r="K68" t="s">
+        <v>205</v>
+      </c>
+      <c r="L68" t="s">
+        <v>205</v>
+      </c>
+      <c r="M68" t="s">
+        <v>205</v>
+      </c>
+      <c r="N68" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="69" spans="1:14">
       <c r="A69" s="1">
@@ -4312,6 +4936,30 @@
       <c r="F72" t="s">
         <v>205</v>
       </c>
+      <c r="G72" t="s">
+        <v>205</v>
+      </c>
+      <c r="H72" t="s">
+        <v>205</v>
+      </c>
+      <c r="I72" t="s">
+        <v>205</v>
+      </c>
+      <c r="J72" t="s">
+        <v>205</v>
+      </c>
+      <c r="K72" t="s">
+        <v>205</v>
+      </c>
+      <c r="L72" t="s">
+        <v>205</v>
+      </c>
+      <c r="M72" t="s">
+        <v>205</v>
+      </c>
+      <c r="N72" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="73" spans="1:14">
       <c r="A73" s="1">
@@ -4376,6 +5024,30 @@
       <c r="F74" t="s">
         <v>205</v>
       </c>
+      <c r="G74" t="s">
+        <v>205</v>
+      </c>
+      <c r="H74" t="s">
+        <v>205</v>
+      </c>
+      <c r="I74" t="s">
+        <v>205</v>
+      </c>
+      <c r="J74" t="s">
+        <v>205</v>
+      </c>
+      <c r="K74" t="s">
+        <v>205</v>
+      </c>
+      <c r="L74" t="s">
+        <v>205</v>
+      </c>
+      <c r="M74" t="s">
+        <v>205</v>
+      </c>
+      <c r="N74" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="75" spans="1:14">
       <c r="A75" s="1">
@@ -4484,6 +5156,30 @@
       <c r="F77" t="s">
         <v>205</v>
       </c>
+      <c r="G77" t="s">
+        <v>205</v>
+      </c>
+      <c r="H77" t="s">
+        <v>205</v>
+      </c>
+      <c r="I77" t="s">
+        <v>205</v>
+      </c>
+      <c r="J77" t="s">
+        <v>205</v>
+      </c>
+      <c r="K77" t="s">
+        <v>205</v>
+      </c>
+      <c r="L77" t="s">
+        <v>205</v>
+      </c>
+      <c r="M77" t="s">
+        <v>205</v>
+      </c>
+      <c r="N77" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="78" spans="1:14">
       <c r="A78" s="1">
@@ -4592,6 +5288,30 @@
       <c r="F80" t="s">
         <v>205</v>
       </c>
+      <c r="G80" t="s">
+        <v>205</v>
+      </c>
+      <c r="H80" t="s">
+        <v>205</v>
+      </c>
+      <c r="I80" t="s">
+        <v>205</v>
+      </c>
+      <c r="J80" t="s">
+        <v>205</v>
+      </c>
+      <c r="K80" t="s">
+        <v>205</v>
+      </c>
+      <c r="L80" t="s">
+        <v>205</v>
+      </c>
+      <c r="M80" t="s">
+        <v>205</v>
+      </c>
+      <c r="N80" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="81" spans="1:14">
       <c r="A81" s="1">
@@ -4744,6 +5464,30 @@
       <c r="F84" t="s">
         <v>205</v>
       </c>
+      <c r="G84" t="s">
+        <v>205</v>
+      </c>
+      <c r="H84" t="s">
+        <v>205</v>
+      </c>
+      <c r="I84" t="s">
+        <v>205</v>
+      </c>
+      <c r="J84" t="s">
+        <v>205</v>
+      </c>
+      <c r="K84" t="s">
+        <v>205</v>
+      </c>
+      <c r="L84" t="s">
+        <v>205</v>
+      </c>
+      <c r="M84" t="s">
+        <v>205</v>
+      </c>
+      <c r="N84" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="85" spans="1:14">
       <c r="A85" s="1">
@@ -4764,6 +5508,30 @@
       <c r="F85" t="s">
         <v>205</v>
       </c>
+      <c r="G85" t="s">
+        <v>205</v>
+      </c>
+      <c r="H85" t="s">
+        <v>205</v>
+      </c>
+      <c r="I85" t="s">
+        <v>205</v>
+      </c>
+      <c r="J85" t="s">
+        <v>205</v>
+      </c>
+      <c r="K85" t="s">
+        <v>205</v>
+      </c>
+      <c r="L85" t="s">
+        <v>205</v>
+      </c>
+      <c r="M85" t="s">
+        <v>205</v>
+      </c>
+      <c r="N85" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="86" spans="1:14">
       <c r="A86" s="1">
@@ -4784,6 +5552,30 @@
       <c r="F86" t="s">
         <v>205</v>
       </c>
+      <c r="G86" t="s">
+        <v>205</v>
+      </c>
+      <c r="H86" t="s">
+        <v>205</v>
+      </c>
+      <c r="I86" t="s">
+        <v>205</v>
+      </c>
+      <c r="J86" t="s">
+        <v>205</v>
+      </c>
+      <c r="K86" t="s">
+        <v>205</v>
+      </c>
+      <c r="L86" t="s">
+        <v>205</v>
+      </c>
+      <c r="M86" t="s">
+        <v>205</v>
+      </c>
+      <c r="N86" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="87" spans="1:14">
       <c r="A87" s="1">
@@ -5068,6 +5860,30 @@
       <c r="F93" t="s">
         <v>205</v>
       </c>
+      <c r="G93" t="s">
+        <v>205</v>
+      </c>
+      <c r="H93" t="s">
+        <v>205</v>
+      </c>
+      <c r="I93" t="s">
+        <v>205</v>
+      </c>
+      <c r="J93" t="s">
+        <v>205</v>
+      </c>
+      <c r="K93" t="s">
+        <v>205</v>
+      </c>
+      <c r="L93" t="s">
+        <v>205</v>
+      </c>
+      <c r="M93" t="s">
+        <v>205</v>
+      </c>
+      <c r="N93" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="94" spans="1:14">
       <c r="A94" s="1">
@@ -5220,6 +6036,30 @@
       <c r="F97" t="s">
         <v>205</v>
       </c>
+      <c r="G97" t="s">
+        <v>205</v>
+      </c>
+      <c r="H97" t="s">
+        <v>205</v>
+      </c>
+      <c r="I97" t="s">
+        <v>205</v>
+      </c>
+      <c r="J97" t="s">
+        <v>205</v>
+      </c>
+      <c r="K97" t="s">
+        <v>205</v>
+      </c>
+      <c r="L97" t="s">
+        <v>205</v>
+      </c>
+      <c r="M97" t="s">
+        <v>205</v>
+      </c>
+      <c r="N97" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="98" spans="1:14">
       <c r="A98" s="1">
@@ -5284,6 +6124,30 @@
       <c r="F99" t="s">
         <v>205</v>
       </c>
+      <c r="G99" t="s">
+        <v>205</v>
+      </c>
+      <c r="H99" t="s">
+        <v>205</v>
+      </c>
+      <c r="I99" t="s">
+        <v>205</v>
+      </c>
+      <c r="J99" t="s">
+        <v>205</v>
+      </c>
+      <c r="K99" t="s">
+        <v>205</v>
+      </c>
+      <c r="L99" t="s">
+        <v>205</v>
+      </c>
+      <c r="M99" t="s">
+        <v>205</v>
+      </c>
+      <c r="N99" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="100" spans="1:14">
       <c r="A100" s="1">
@@ -5304,6 +6168,30 @@
       <c r="F100" t="s">
         <v>205</v>
       </c>
+      <c r="G100" t="s">
+        <v>205</v>
+      </c>
+      <c r="H100" t="s">
+        <v>205</v>
+      </c>
+      <c r="I100" t="s">
+        <v>205</v>
+      </c>
+      <c r="J100" t="s">
+        <v>205</v>
+      </c>
+      <c r="K100" t="s">
+        <v>205</v>
+      </c>
+      <c r="L100" t="s">
+        <v>205</v>
+      </c>
+      <c r="M100" t="s">
+        <v>205</v>
+      </c>
+      <c r="N100" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="101" spans="1:14">
       <c r="A101" s="1">
@@ -5588,6 +6476,30 @@
       <c r="F107" t="s">
         <v>205</v>
       </c>
+      <c r="G107" t="s">
+        <v>205</v>
+      </c>
+      <c r="H107" t="s">
+        <v>205</v>
+      </c>
+      <c r="I107" t="s">
+        <v>205</v>
+      </c>
+      <c r="J107" t="s">
+        <v>205</v>
+      </c>
+      <c r="K107" t="s">
+        <v>205</v>
+      </c>
+      <c r="L107" t="s">
+        <v>205</v>
+      </c>
+      <c r="M107" t="s">
+        <v>205</v>
+      </c>
+      <c r="N107" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="108" spans="1:14">
       <c r="A108" s="1">
@@ -5696,6 +6608,30 @@
       <c r="F110" t="s">
         <v>205</v>
       </c>
+      <c r="G110" t="s">
+        <v>205</v>
+      </c>
+      <c r="H110" t="s">
+        <v>205</v>
+      </c>
+      <c r="I110" t="s">
+        <v>205</v>
+      </c>
+      <c r="J110" t="s">
+        <v>205</v>
+      </c>
+      <c r="K110" t="s">
+        <v>205</v>
+      </c>
+      <c r="L110" t="s">
+        <v>205</v>
+      </c>
+      <c r="M110" t="s">
+        <v>205</v>
+      </c>
+      <c r="N110" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="111" spans="1:14">
       <c r="A111" s="1">
@@ -5804,6 +6740,30 @@
       <c r="F113" t="s">
         <v>205</v>
       </c>
+      <c r="G113" t="s">
+        <v>205</v>
+      </c>
+      <c r="H113" t="s">
+        <v>205</v>
+      </c>
+      <c r="I113" t="s">
+        <v>205</v>
+      </c>
+      <c r="J113" t="s">
+        <v>205</v>
+      </c>
+      <c r="K113" t="s">
+        <v>205</v>
+      </c>
+      <c r="L113" t="s">
+        <v>205</v>
+      </c>
+      <c r="M113" t="s">
+        <v>205</v>
+      </c>
+      <c r="N113" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="114" spans="1:14">
       <c r="A114" s="1">
@@ -5824,6 +6784,30 @@
       <c r="F114" t="s">
         <v>205</v>
       </c>
+      <c r="G114" t="s">
+        <v>205</v>
+      </c>
+      <c r="H114" t="s">
+        <v>205</v>
+      </c>
+      <c r="I114" t="s">
+        <v>205</v>
+      </c>
+      <c r="J114" t="s">
+        <v>205</v>
+      </c>
+      <c r="K114" t="s">
+        <v>205</v>
+      </c>
+      <c r="L114" t="s">
+        <v>205</v>
+      </c>
+      <c r="M114" t="s">
+        <v>205</v>
+      </c>
+      <c r="N114" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="115" spans="1:14">
       <c r="A115" s="1">
@@ -5888,6 +6872,30 @@
       <c r="F116" t="s">
         <v>205</v>
       </c>
+      <c r="G116" t="s">
+        <v>205</v>
+      </c>
+      <c r="H116" t="s">
+        <v>205</v>
+      </c>
+      <c r="I116" t="s">
+        <v>205</v>
+      </c>
+      <c r="J116" t="s">
+        <v>205</v>
+      </c>
+      <c r="K116" t="s">
+        <v>205</v>
+      </c>
+      <c r="L116" t="s">
+        <v>205</v>
+      </c>
+      <c r="M116" t="s">
+        <v>205</v>
+      </c>
+      <c r="N116" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="117" spans="1:14">
       <c r="A117" s="1">
@@ -6040,6 +7048,30 @@
       <c r="F120" t="s">
         <v>205</v>
       </c>
+      <c r="G120" t="s">
+        <v>205</v>
+      </c>
+      <c r="H120" t="s">
+        <v>205</v>
+      </c>
+      <c r="I120" t="s">
+        <v>205</v>
+      </c>
+      <c r="J120" t="s">
+        <v>205</v>
+      </c>
+      <c r="K120" t="s">
+        <v>205</v>
+      </c>
+      <c r="L120" t="s">
+        <v>205</v>
+      </c>
+      <c r="M120" t="s">
+        <v>205</v>
+      </c>
+      <c r="N120" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="121" spans="1:14">
       <c r="A121" s="1">
@@ -6148,6 +7180,30 @@
       <c r="F123" t="s">
         <v>205</v>
       </c>
+      <c r="G123" t="s">
+        <v>205</v>
+      </c>
+      <c r="H123" t="s">
+        <v>205</v>
+      </c>
+      <c r="I123" t="s">
+        <v>205</v>
+      </c>
+      <c r="J123" t="s">
+        <v>205</v>
+      </c>
+      <c r="K123" t="s">
+        <v>205</v>
+      </c>
+      <c r="L123" t="s">
+        <v>205</v>
+      </c>
+      <c r="M123" t="s">
+        <v>205</v>
+      </c>
+      <c r="N123" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="124" spans="1:14">
       <c r="A124" s="1">
@@ -6388,6 +7444,30 @@
       <c r="F129" t="s">
         <v>205</v>
       </c>
+      <c r="G129" t="s">
+        <v>205</v>
+      </c>
+      <c r="H129" t="s">
+        <v>205</v>
+      </c>
+      <c r="I129" t="s">
+        <v>205</v>
+      </c>
+      <c r="J129" t="s">
+        <v>205</v>
+      </c>
+      <c r="K129" t="s">
+        <v>205</v>
+      </c>
+      <c r="L129" t="s">
+        <v>205</v>
+      </c>
+      <c r="M129" t="s">
+        <v>205</v>
+      </c>
+      <c r="N129" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="130" spans="1:14">
       <c r="A130" s="1">
@@ -6628,6 +7708,30 @@
       <c r="F135" t="s">
         <v>205</v>
       </c>
+      <c r="G135" t="s">
+        <v>205</v>
+      </c>
+      <c r="H135" t="s">
+        <v>205</v>
+      </c>
+      <c r="I135" t="s">
+        <v>205</v>
+      </c>
+      <c r="J135" t="s">
+        <v>205</v>
+      </c>
+      <c r="K135" t="s">
+        <v>205</v>
+      </c>
+      <c r="L135" t="s">
+        <v>205</v>
+      </c>
+      <c r="M135" t="s">
+        <v>205</v>
+      </c>
+      <c r="N135" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="136" spans="1:14">
       <c r="A136" s="1">
@@ -6868,6 +7972,30 @@
       <c r="F141" t="s">
         <v>205</v>
       </c>
+      <c r="G141" t="s">
+        <v>205</v>
+      </c>
+      <c r="H141" t="s">
+        <v>205</v>
+      </c>
+      <c r="I141" t="s">
+        <v>205</v>
+      </c>
+      <c r="J141" t="s">
+        <v>205</v>
+      </c>
+      <c r="K141" t="s">
+        <v>205</v>
+      </c>
+      <c r="L141" t="s">
+        <v>205</v>
+      </c>
+      <c r="M141" t="s">
+        <v>205</v>
+      </c>
+      <c r="N141" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="142" spans="1:14">
       <c r="A142" s="1">
@@ -7020,6 +8148,30 @@
       <c r="F145" t="s">
         <v>205</v>
       </c>
+      <c r="G145" t="s">
+        <v>205</v>
+      </c>
+      <c r="H145" t="s">
+        <v>205</v>
+      </c>
+      <c r="I145" t="s">
+        <v>205</v>
+      </c>
+      <c r="J145" t="s">
+        <v>205</v>
+      </c>
+      <c r="K145" t="s">
+        <v>205</v>
+      </c>
+      <c r="L145" t="s">
+        <v>205</v>
+      </c>
+      <c r="M145" t="s">
+        <v>205</v>
+      </c>
+      <c r="N145" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="146" spans="1:14">
       <c r="A146" s="1">
@@ -7040,6 +8192,30 @@
       <c r="F146" t="s">
         <v>205</v>
       </c>
+      <c r="G146" t="s">
+        <v>205</v>
+      </c>
+      <c r="H146" t="s">
+        <v>205</v>
+      </c>
+      <c r="I146" t="s">
+        <v>205</v>
+      </c>
+      <c r="J146" t="s">
+        <v>205</v>
+      </c>
+      <c r="K146" t="s">
+        <v>205</v>
+      </c>
+      <c r="L146" t="s">
+        <v>205</v>
+      </c>
+      <c r="M146" t="s">
+        <v>205</v>
+      </c>
+      <c r="N146" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="147" spans="1:14">
       <c r="A147" s="1">
@@ -7280,6 +8456,30 @@
       <c r="F152" t="s">
         <v>205</v>
       </c>
+      <c r="G152" t="s">
+        <v>205</v>
+      </c>
+      <c r="H152" t="s">
+        <v>205</v>
+      </c>
+      <c r="I152" t="s">
+        <v>205</v>
+      </c>
+      <c r="J152" t="s">
+        <v>205</v>
+      </c>
+      <c r="K152" t="s">
+        <v>205</v>
+      </c>
+      <c r="L152" t="s">
+        <v>205</v>
+      </c>
+      <c r="M152" t="s">
+        <v>205</v>
+      </c>
+      <c r="N152" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="153" spans="1:14">
       <c r="A153" s="1">
@@ -7432,6 +8632,30 @@
       <c r="F156" t="s">
         <v>205</v>
       </c>
+      <c r="G156" t="s">
+        <v>205</v>
+      </c>
+      <c r="H156" t="s">
+        <v>205</v>
+      </c>
+      <c r="I156" t="s">
+        <v>205</v>
+      </c>
+      <c r="J156" t="s">
+        <v>205</v>
+      </c>
+      <c r="K156" t="s">
+        <v>205</v>
+      </c>
+      <c r="L156" t="s">
+        <v>205</v>
+      </c>
+      <c r="M156" t="s">
+        <v>205</v>
+      </c>
+      <c r="N156" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="157" spans="1:14">
       <c r="A157" s="1">
@@ -7672,6 +8896,30 @@
       <c r="F162" t="s">
         <v>205</v>
       </c>
+      <c r="G162" t="s">
+        <v>205</v>
+      </c>
+      <c r="H162" t="s">
+        <v>205</v>
+      </c>
+      <c r="I162" t="s">
+        <v>205</v>
+      </c>
+      <c r="J162" t="s">
+        <v>205</v>
+      </c>
+      <c r="K162" t="s">
+        <v>205</v>
+      </c>
+      <c r="L162" t="s">
+        <v>205</v>
+      </c>
+      <c r="M162" t="s">
+        <v>205</v>
+      </c>
+      <c r="N162" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="163" spans="1:14">
       <c r="A163" s="1">
@@ -7692,6 +8940,30 @@
       <c r="F163" t="s">
         <v>205</v>
       </c>
+      <c r="G163" t="s">
+        <v>205</v>
+      </c>
+      <c r="H163" t="s">
+        <v>205</v>
+      </c>
+      <c r="I163" t="s">
+        <v>205</v>
+      </c>
+      <c r="J163" t="s">
+        <v>205</v>
+      </c>
+      <c r="K163" t="s">
+        <v>205</v>
+      </c>
+      <c r="L163" t="s">
+        <v>205</v>
+      </c>
+      <c r="M163" t="s">
+        <v>205</v>
+      </c>
+      <c r="N163" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="164" spans="1:14">
       <c r="A164" s="1">
@@ -7756,6 +9028,30 @@
       <c r="F165" t="s">
         <v>205</v>
       </c>
+      <c r="G165" t="s">
+        <v>205</v>
+      </c>
+      <c r="H165" t="s">
+        <v>205</v>
+      </c>
+      <c r="I165" t="s">
+        <v>205</v>
+      </c>
+      <c r="J165" t="s">
+        <v>205</v>
+      </c>
+      <c r="K165" t="s">
+        <v>205</v>
+      </c>
+      <c r="L165" t="s">
+        <v>205</v>
+      </c>
+      <c r="M165" t="s">
+        <v>205</v>
+      </c>
+      <c r="N165" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="166" spans="1:14">
       <c r="A166" s="1">
@@ -7820,6 +9116,30 @@
       <c r="F167" t="s">
         <v>205</v>
       </c>
+      <c r="G167" t="s">
+        <v>205</v>
+      </c>
+      <c r="H167" t="s">
+        <v>205</v>
+      </c>
+      <c r="I167" t="s">
+        <v>205</v>
+      </c>
+      <c r="J167" t="s">
+        <v>205</v>
+      </c>
+      <c r="K167" t="s">
+        <v>205</v>
+      </c>
+      <c r="L167" t="s">
+        <v>205</v>
+      </c>
+      <c r="M167" t="s">
+        <v>205</v>
+      </c>
+      <c r="N167" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="168" spans="1:14">
       <c r="A168" s="1">
@@ -7840,6 +9160,30 @@
       <c r="F168" t="s">
         <v>205</v>
       </c>
+      <c r="G168" t="s">
+        <v>205</v>
+      </c>
+      <c r="H168" t="s">
+        <v>205</v>
+      </c>
+      <c r="I168" t="s">
+        <v>205</v>
+      </c>
+      <c r="J168" t="s">
+        <v>205</v>
+      </c>
+      <c r="K168" t="s">
+        <v>205</v>
+      </c>
+      <c r="L168" t="s">
+        <v>205</v>
+      </c>
+      <c r="M168" t="s">
+        <v>205</v>
+      </c>
+      <c r="N168" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="169" spans="1:14">
       <c r="A169" s="1">
@@ -7860,6 +9204,30 @@
       <c r="F169" t="s">
         <v>205</v>
       </c>
+      <c r="G169" t="s">
+        <v>205</v>
+      </c>
+      <c r="H169" t="s">
+        <v>205</v>
+      </c>
+      <c r="I169" t="s">
+        <v>205</v>
+      </c>
+      <c r="J169" t="s">
+        <v>205</v>
+      </c>
+      <c r="K169" t="s">
+        <v>205</v>
+      </c>
+      <c r="L169" t="s">
+        <v>205</v>
+      </c>
+      <c r="M169" t="s">
+        <v>205</v>
+      </c>
+      <c r="N169" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="170" spans="1:14">
       <c r="A170" s="1">
@@ -7968,6 +9336,30 @@
       <c r="F172" t="s">
         <v>205</v>
       </c>
+      <c r="G172" t="s">
+        <v>205</v>
+      </c>
+      <c r="H172" t="s">
+        <v>205</v>
+      </c>
+      <c r="I172" t="s">
+        <v>205</v>
+      </c>
+      <c r="J172" t="s">
+        <v>205</v>
+      </c>
+      <c r="K172" t="s">
+        <v>205</v>
+      </c>
+      <c r="L172" t="s">
+        <v>205</v>
+      </c>
+      <c r="M172" t="s">
+        <v>205</v>
+      </c>
+      <c r="N172" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="173" spans="1:14">
       <c r="A173" s="1">
@@ -7988,6 +9380,30 @@
       <c r="F173" t="s">
         <v>205</v>
       </c>
+      <c r="G173" t="s">
+        <v>205</v>
+      </c>
+      <c r="H173" t="s">
+        <v>205</v>
+      </c>
+      <c r="I173" t="s">
+        <v>205</v>
+      </c>
+      <c r="J173" t="s">
+        <v>205</v>
+      </c>
+      <c r="K173" t="s">
+        <v>205</v>
+      </c>
+      <c r="L173" t="s">
+        <v>205</v>
+      </c>
+      <c r="M173" t="s">
+        <v>205</v>
+      </c>
+      <c r="N173" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="174" spans="1:14">
       <c r="A174" s="1">
@@ -8096,6 +9512,30 @@
       <c r="F176" t="s">
         <v>205</v>
       </c>
+      <c r="G176" t="s">
+        <v>205</v>
+      </c>
+      <c r="H176" t="s">
+        <v>205</v>
+      </c>
+      <c r="I176" t="s">
+        <v>205</v>
+      </c>
+      <c r="J176" t="s">
+        <v>205</v>
+      </c>
+      <c r="K176" t="s">
+        <v>205</v>
+      </c>
+      <c r="L176" t="s">
+        <v>205</v>
+      </c>
+      <c r="M176" t="s">
+        <v>205</v>
+      </c>
+      <c r="N176" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="177" spans="1:14">
       <c r="A177" s="1">
@@ -8248,6 +9688,30 @@
       <c r="F180" t="s">
         <v>205</v>
       </c>
+      <c r="G180" t="s">
+        <v>205</v>
+      </c>
+      <c r="H180" t="s">
+        <v>205</v>
+      </c>
+      <c r="I180" t="s">
+        <v>205</v>
+      </c>
+      <c r="J180" t="s">
+        <v>205</v>
+      </c>
+      <c r="K180" t="s">
+        <v>205</v>
+      </c>
+      <c r="L180" t="s">
+        <v>205</v>
+      </c>
+      <c r="M180" t="s">
+        <v>205</v>
+      </c>
+      <c r="N180" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="181" spans="1:14">
       <c r="A181" s="1">
@@ -8312,6 +9776,30 @@
       <c r="F182" t="s">
         <v>205</v>
       </c>
+      <c r="G182" t="s">
+        <v>205</v>
+      </c>
+      <c r="H182" t="s">
+        <v>205</v>
+      </c>
+      <c r="I182" t="s">
+        <v>205</v>
+      </c>
+      <c r="J182" t="s">
+        <v>205</v>
+      </c>
+      <c r="K182" t="s">
+        <v>205</v>
+      </c>
+      <c r="L182" t="s">
+        <v>205</v>
+      </c>
+      <c r="M182" t="s">
+        <v>205</v>
+      </c>
+      <c r="N182" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="183" spans="1:14">
       <c r="A183" s="1">
@@ -8552,6 +10040,30 @@
       <c r="F188" t="s">
         <v>205</v>
       </c>
+      <c r="G188" t="s">
+        <v>205</v>
+      </c>
+      <c r="H188" t="s">
+        <v>205</v>
+      </c>
+      <c r="I188" t="s">
+        <v>205</v>
+      </c>
+      <c r="J188" t="s">
+        <v>205</v>
+      </c>
+      <c r="K188" t="s">
+        <v>205</v>
+      </c>
+      <c r="L188" t="s">
+        <v>205</v>
+      </c>
+      <c r="M188" t="s">
+        <v>205</v>
+      </c>
+      <c r="N188" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="189" spans="1:14">
       <c r="A189" s="1">
@@ -8729,7 +10241,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="193" spans="1:6">
+    <row r="193" spans="1:14">
       <c r="A193" s="1">
         <v>191</v>
       </c>
@@ -8746,6 +10258,30 @@
         <v>1</v>
       </c>
       <c r="F193" t="s">
+        <v>205</v>
+      </c>
+      <c r="G193" t="s">
+        <v>205</v>
+      </c>
+      <c r="H193" t="s">
+        <v>205</v>
+      </c>
+      <c r="I193" t="s">
+        <v>205</v>
+      </c>
+      <c r="J193" t="s">
+        <v>205</v>
+      </c>
+      <c r="K193" t="s">
+        <v>205</v>
+      </c>
+      <c r="L193" t="s">
+        <v>205</v>
+      </c>
+      <c r="M193" t="s">
+        <v>205</v>
+      </c>
+      <c r="N193" t="s">
         <v>205</v>
       </c>
     </row>

--- a/sequences/07_retrieval_2.xlsx
+++ b/sequences/07_retrieval_2.xlsx
@@ -55,580 +55,580 @@
     <t>type4</t>
   </si>
   <si>
-    <t>socken</t>
-  </si>
-  <si>
-    <t>raten</t>
-  </si>
-  <si>
-    <t>flammen</t>
-  </si>
-  <si>
-    <t>schätzen</t>
-  </si>
-  <si>
-    <t>narren</t>
+    <t>pressen</t>
+  </si>
+  <si>
+    <t>werfen</t>
+  </si>
+  <si>
+    <t>locken</t>
+  </si>
+  <si>
+    <t>treiben</t>
+  </si>
+  <si>
+    <t>altern</t>
+  </si>
+  <si>
+    <t>achten</t>
+  </si>
+  <si>
+    <t>sammeln</t>
+  </si>
+  <si>
+    <t>landen</t>
+  </si>
+  <si>
+    <t>wirken</t>
+  </si>
+  <si>
+    <t>zeigen</t>
+  </si>
+  <si>
+    <t>binden</t>
+  </si>
+  <si>
+    <t>kosten</t>
+  </si>
+  <si>
+    <t>mögen</t>
+  </si>
+  <si>
+    <t>treten</t>
+  </si>
+  <si>
+    <t>jubeln</t>
+  </si>
+  <si>
+    <t>schauen</t>
+  </si>
+  <si>
+    <t>schicken</t>
+  </si>
+  <si>
+    <t>bergen</t>
+  </si>
+  <si>
+    <t>lesen</t>
+  </si>
+  <si>
+    <t>ziehen</t>
+  </si>
+  <si>
+    <t>schwächen</t>
+  </si>
+  <si>
+    <t>sterben</t>
+  </si>
+  <si>
+    <t>pissen</t>
+  </si>
+  <si>
+    <t>fischen</t>
+  </si>
+  <si>
+    <t>spinnen</t>
+  </si>
+  <si>
+    <t>decken</t>
+  </si>
+  <si>
+    <t>sprengen</t>
+  </si>
+  <si>
+    <t>gelten</t>
+  </si>
+  <si>
+    <t>nutzen</t>
+  </si>
+  <si>
+    <t>boxen</t>
+  </si>
+  <si>
+    <t>schwingen</t>
+  </si>
+  <si>
+    <t>ärgern</t>
+  </si>
+  <si>
+    <t>hindern</t>
+  </si>
+  <si>
+    <t>reiten</t>
+  </si>
+  <si>
+    <t>albern</t>
+  </si>
+  <si>
+    <t>stärken</t>
+  </si>
+  <si>
+    <t>heilen</t>
+  </si>
+  <si>
+    <t>dürfen</t>
+  </si>
+  <si>
+    <t>schreiten</t>
+  </si>
+  <si>
+    <t>kichern</t>
+  </si>
+  <si>
+    <t>münzen</t>
+  </si>
+  <si>
+    <t>löschen</t>
+  </si>
+  <si>
+    <t>stehlen</t>
+  </si>
+  <si>
+    <t>helfen</t>
+  </si>
+  <si>
+    <t>scheiden</t>
+  </si>
+  <si>
+    <t>melden</t>
+  </si>
+  <si>
+    <t>zünden</t>
+  </si>
+  <si>
+    <t>stechen</t>
+  </si>
+  <si>
+    <t>orten</t>
+  </si>
+  <si>
+    <t>seufzen</t>
+  </si>
+  <si>
+    <t>flüchten</t>
+  </si>
+  <si>
+    <t>plaudern</t>
+  </si>
+  <si>
+    <t>flehen</t>
+  </si>
+  <si>
+    <t>loben</t>
+  </si>
+  <si>
+    <t>feuern</t>
+  </si>
+  <si>
+    <t>filmen</t>
+  </si>
+  <si>
+    <t>zeichnen</t>
+  </si>
+  <si>
+    <t>betteln</t>
+  </si>
+  <si>
+    <t>fällen</t>
+  </si>
+  <si>
+    <t>heben</t>
+  </si>
+  <si>
+    <t>fließen</t>
+  </si>
+  <si>
+    <t>klingen</t>
+  </si>
+  <si>
+    <t>bellen</t>
+  </si>
+  <si>
+    <t>bilden</t>
+  </si>
+  <si>
+    <t>wehtun</t>
+  </si>
+  <si>
+    <t>saufen</t>
+  </si>
+  <si>
+    <t>duschen</t>
+  </si>
+  <si>
+    <t>pflanzen</t>
+  </si>
+  <si>
+    <t>arten</t>
+  </si>
+  <si>
+    <t>freuen</t>
+  </si>
+  <si>
+    <t>hoffen</t>
+  </si>
+  <si>
+    <t>tropfen</t>
+  </si>
+  <si>
+    <t>dauern</t>
+  </si>
+  <si>
+    <t>scheitern</t>
+  </si>
+  <si>
+    <t>räumen</t>
+  </si>
+  <si>
+    <t>rauchen</t>
+  </si>
+  <si>
+    <t>sinken</t>
+  </si>
+  <si>
+    <t>zielen</t>
+  </si>
+  <si>
+    <t>wehen</t>
+  </si>
+  <si>
+    <t>bluten</t>
+  </si>
+  <si>
+    <t>wenden</t>
+  </si>
+  <si>
+    <t>dringen</t>
+  </si>
+  <si>
+    <t>herrschen</t>
+  </si>
+  <si>
+    <t>knurren</t>
+  </si>
+  <si>
+    <t>stoßen</t>
+  </si>
+  <si>
+    <t>wüten</t>
+  </si>
+  <si>
+    <t>heulen</t>
+  </si>
+  <si>
+    <t>lügen</t>
+  </si>
+  <si>
+    <t>jagen</t>
+  </si>
+  <si>
+    <t>planen</t>
+  </si>
+  <si>
+    <t>formen</t>
+  </si>
+  <si>
+    <t>deuten</t>
+  </si>
+  <si>
+    <t>drehen</t>
+  </si>
+  <si>
+    <t>platzen</t>
+  </si>
+  <si>
+    <t>mauern</t>
+  </si>
+  <si>
+    <t>beißen</t>
+  </si>
+  <si>
+    <t>trennen</t>
+  </si>
+  <si>
+    <t>sagen</t>
+  </si>
+  <si>
+    <t>drohen</t>
+  </si>
+  <si>
+    <t>sichern</t>
+  </si>
+  <si>
+    <t>schmecken</t>
+  </si>
+  <si>
+    <t>spüren</t>
+  </si>
+  <si>
+    <t>reizen</t>
+  </si>
+  <si>
+    <t>feiern</t>
+  </si>
+  <si>
+    <t>irren</t>
+  </si>
+  <si>
+    <t>schlafen</t>
+  </si>
+  <si>
+    <t>führen</t>
+  </si>
+  <si>
+    <t>rasen</t>
+  </si>
+  <si>
+    <t>rechnen</t>
+  </si>
+  <si>
+    <t>trauen</t>
+  </si>
+  <si>
+    <t>liefern</t>
+  </si>
+  <si>
+    <t>fühlen</t>
+  </si>
+  <si>
+    <t>zählen</t>
+  </si>
+  <si>
+    <t>malen</t>
+  </si>
+  <si>
+    <t>klagen</t>
+  </si>
+  <si>
+    <t>scheinen</t>
+  </si>
+  <si>
+    <t>sorgen</t>
+  </si>
+  <si>
+    <t>weichen</t>
+  </si>
+  <si>
+    <t>herzen</t>
+  </si>
+  <si>
+    <t>ändern</t>
+  </si>
+  <si>
+    <t>schulden</t>
+  </si>
+  <si>
+    <t>holen</t>
+  </si>
+  <si>
+    <t>gründen</t>
+  </si>
+  <si>
+    <t>geben</t>
+  </si>
+  <si>
+    <t>machen</t>
+  </si>
+  <si>
+    <t>schrecken</t>
+  </si>
+  <si>
+    <t>wundern</t>
+  </si>
+  <si>
+    <t>flüstern</t>
+  </si>
+  <si>
+    <t>zögern</t>
+  </si>
+  <si>
+    <t>dienen</t>
+  </si>
+  <si>
+    <t>warnen</t>
+  </si>
+  <si>
+    <t>runden</t>
+  </si>
+  <si>
+    <t>quälen</t>
+  </si>
+  <si>
+    <t>tauschen</t>
+  </si>
+  <si>
+    <t>grüßen</t>
+  </si>
+  <si>
+    <t>tollen</t>
+  </si>
+  <si>
+    <t>fallen</t>
+  </si>
+  <si>
+    <t>hören</t>
+  </si>
+  <si>
+    <t>kehren</t>
+  </si>
+  <si>
+    <t>starren</t>
+  </si>
+  <si>
+    <t>biegen</t>
+  </si>
+  <si>
+    <t>erben</t>
+  </si>
+  <si>
+    <t>siegen</t>
+  </si>
+  <si>
+    <t>kriegen</t>
+  </si>
+  <si>
+    <t>kämpfen</t>
+  </si>
+  <si>
+    <t>graben</t>
+  </si>
+  <si>
+    <t>kümmern</t>
+  </si>
+  <si>
+    <t>suchen</t>
+  </si>
+  <si>
+    <t>schenken</t>
+  </si>
+  <si>
+    <t>brauchen</t>
+  </si>
+  <si>
+    <t>wärmen</t>
+  </si>
+  <si>
+    <t>pfeifen</t>
+  </si>
+  <si>
+    <t>bitten</t>
+  </si>
+  <si>
+    <t>spielen</t>
+  </si>
+  <si>
+    <t>krachen</t>
+  </si>
+  <si>
+    <t>greifen</t>
+  </si>
+  <si>
+    <t>enden</t>
+  </si>
+  <si>
+    <t>hauen</t>
+  </si>
+  <si>
+    <t>rufen</t>
+  </si>
+  <si>
+    <t>backen</t>
+  </si>
+  <si>
+    <t>wechseln</t>
+  </si>
+  <si>
+    <t>lohnen</t>
+  </si>
+  <si>
+    <t>streichen</t>
+  </si>
+  <si>
+    <t>öffnen</t>
+  </si>
+  <si>
+    <t>äußern</t>
+  </si>
+  <si>
+    <t>bieten</t>
+  </si>
+  <si>
+    <t>schultern</t>
+  </si>
+  <si>
+    <t>laufen</t>
+  </si>
+  <si>
+    <t>stecken</t>
+  </si>
+  <si>
+    <t>sperren</t>
+  </si>
+  <si>
+    <t>passen</t>
+  </si>
+  <si>
+    <t>regeln</t>
+  </si>
+  <si>
+    <t>töten</t>
+  </si>
+  <si>
+    <t>werden</t>
+  </si>
+  <si>
+    <t>süßen</t>
+  </si>
+  <si>
+    <t>folgen</t>
+  </si>
+  <si>
+    <t>schlucken</t>
   </si>
   <si>
     <t>ehren</t>
   </si>
   <si>
-    <t>vögeln</t>
-  </si>
-  <si>
-    <t>stillen</t>
-  </si>
-  <si>
-    <t>stärken</t>
-  </si>
-  <si>
-    <t>kaufen</t>
-  </si>
-  <si>
-    <t>melden</t>
-  </si>
-  <si>
-    <t>reisen</t>
-  </si>
-  <si>
-    <t>antun</t>
-  </si>
-  <si>
-    <t>nennen</t>
-  </si>
-  <si>
-    <t>deuten</t>
-  </si>
-  <si>
-    <t>schlafen</t>
-  </si>
-  <si>
-    <t>triefen</t>
-  </si>
-  <si>
-    <t>trotzen</t>
-  </si>
-  <si>
-    <t>backen</t>
-  </si>
-  <si>
-    <t>beißen</t>
-  </si>
-  <si>
-    <t>rufen</t>
-  </si>
-  <si>
-    <t>kranken</t>
-  </si>
-  <si>
-    <t>bellen</t>
-  </si>
-  <si>
-    <t>rechnen</t>
-  </si>
-  <si>
-    <t>stechen</t>
-  </si>
-  <si>
-    <t>kriegen</t>
-  </si>
-  <si>
-    <t>spenden</t>
-  </si>
-  <si>
-    <t>binden</t>
-  </si>
-  <si>
-    <t>prügeln</t>
-  </si>
-  <si>
-    <t>spüren</t>
-  </si>
-  <si>
-    <t>meinen</t>
-  </si>
-  <si>
-    <t>wehen</t>
-  </si>
-  <si>
-    <t>lohnen</t>
-  </si>
-  <si>
-    <t>leiten</t>
-  </si>
-  <si>
-    <t>regeln</t>
-  </si>
-  <si>
-    <t>gleichen</t>
-  </si>
-  <si>
-    <t>atmen</t>
-  </si>
-  <si>
-    <t>heilen</t>
-  </si>
-  <si>
-    <t>stoßen</t>
-  </si>
-  <si>
-    <t>holen</t>
-  </si>
-  <si>
-    <t>wecken</t>
-  </si>
-  <si>
-    <t>hängen</t>
-  </si>
-  <si>
-    <t>nehmen</t>
-  </si>
-  <si>
-    <t>husten</t>
-  </si>
-  <si>
-    <t>schlampen</t>
-  </si>
-  <si>
-    <t>meistern</t>
-  </si>
-  <si>
-    <t>mögen</t>
-  </si>
-  <si>
-    <t>fügen</t>
-  </si>
-  <si>
-    <t>garen</t>
-  </si>
-  <si>
-    <t>heißen</t>
-  </si>
-  <si>
-    <t>scheitern</t>
-  </si>
-  <si>
-    <t>orten</t>
-  </si>
-  <si>
-    <t>quellen</t>
-  </si>
-  <si>
-    <t>schenken</t>
-  </si>
-  <si>
-    <t>wüten</t>
-  </si>
-  <si>
-    <t>streifen</t>
-  </si>
-  <si>
-    <t>sperren</t>
-  </si>
-  <si>
-    <t>hupen</t>
-  </si>
-  <si>
-    <t>formen</t>
-  </si>
-  <si>
-    <t>wenden</t>
-  </si>
-  <si>
-    <t>regnen</t>
-  </si>
-  <si>
-    <t>achten</t>
-  </si>
-  <si>
-    <t>leeren</t>
-  </si>
-  <si>
-    <t>dingen</t>
-  </si>
-  <si>
-    <t>drehen</t>
-  </si>
-  <si>
-    <t>hauen</t>
-  </si>
-  <si>
-    <t>kommen</t>
-  </si>
-  <si>
-    <t>sondern</t>
-  </si>
-  <si>
-    <t>schicken</t>
-  </si>
-  <si>
-    <t>töten</t>
-  </si>
-  <si>
-    <t>zeugen</t>
-  </si>
-  <si>
-    <t>hoffen</t>
-  </si>
-  <si>
-    <t>laden</t>
-  </si>
-  <si>
-    <t>sparen</t>
-  </si>
-  <si>
-    <t>hacken</t>
-  </si>
-  <si>
-    <t>machen</t>
+    <t>zahlen</t>
+  </si>
+  <si>
+    <t>klettern</t>
+  </si>
+  <si>
+    <t>kürzen</t>
+  </si>
+  <si>
+    <t>liegen</t>
+  </si>
+  <si>
+    <t>stammen</t>
+  </si>
+  <si>
+    <t>lockern</t>
+  </si>
+  <si>
+    <t>wachsen</t>
+  </si>
+  <si>
+    <t>fahren</t>
+  </si>
+  <si>
+    <t>lieben</t>
+  </si>
+  <si>
+    <t>knarren</t>
+  </si>
+  <si>
+    <t>schwören</t>
+  </si>
+  <si>
+    <t>fangen</t>
   </si>
   <si>
     <t>bauen</t>
   </si>
   <si>
-    <t>mieten</t>
-  </si>
-  <si>
-    <t>doppeln</t>
-  </si>
-  <si>
-    <t>haken</t>
-  </si>
-  <si>
-    <t>legen</t>
-  </si>
-  <si>
-    <t>opfern</t>
-  </si>
-  <si>
-    <t>siegen</t>
-  </si>
-  <si>
-    <t>platzen</t>
-  </si>
-  <si>
-    <t>suchen</t>
-  </si>
-  <si>
-    <t>wählen</t>
-  </si>
-  <si>
-    <t>runden</t>
-  </si>
-  <si>
-    <t>fesseln</t>
-  </si>
-  <si>
-    <t>parken</t>
-  </si>
-  <si>
-    <t>nullen</t>
-  </si>
-  <si>
-    <t>starten</t>
-  </si>
-  <si>
-    <t>schauen</t>
-  </si>
-  <si>
-    <t>strahlen</t>
-  </si>
-  <si>
-    <t>drohen</t>
-  </si>
-  <si>
-    <t>süßen</t>
-  </si>
-  <si>
-    <t>schnellen</t>
-  </si>
-  <si>
-    <t>kehren</t>
-  </si>
-  <si>
-    <t>erben</t>
-  </si>
-  <si>
-    <t>checken</t>
-  </si>
-  <si>
-    <t>tauschen</t>
-  </si>
-  <si>
-    <t>wiegen</t>
-  </si>
-  <si>
-    <t>spielen</t>
-  </si>
-  <si>
-    <t>öffnen</t>
-  </si>
-  <si>
-    <t>hassen</t>
-  </si>
-  <si>
-    <t>krachen</t>
-  </si>
-  <si>
-    <t>knien</t>
-  </si>
-  <si>
-    <t>bitten</t>
-  </si>
-  <si>
-    <t>wachsen</t>
-  </si>
-  <si>
-    <t>drücken</t>
-  </si>
-  <si>
-    <t>herrschen</t>
-  </si>
-  <si>
-    <t>schmecken</t>
-  </si>
-  <si>
-    <t>nähern</t>
-  </si>
-  <si>
-    <t>spannen</t>
-  </si>
-  <si>
-    <t>währen</t>
-  </si>
-  <si>
-    <t>kürzen</t>
-  </si>
-  <si>
-    <t>zögern</t>
-  </si>
-  <si>
-    <t>angeln</t>
-  </si>
-  <si>
-    <t>tagen</t>
-  </si>
-  <si>
-    <t>spinnen</t>
-  </si>
-  <si>
-    <t>lächeln</t>
-  </si>
-  <si>
-    <t>loben</t>
-  </si>
-  <si>
-    <t>träumen</t>
-  </si>
-  <si>
-    <t>fließen</t>
-  </si>
-  <si>
-    <t>pflegen</t>
-  </si>
-  <si>
-    <t>rasen</t>
-  </si>
-  <si>
-    <t>füttern</t>
-  </si>
-  <si>
-    <t>ärgern</t>
-  </si>
-  <si>
-    <t>klagen</t>
-  </si>
-  <si>
-    <t>zielen</t>
-  </si>
-  <si>
-    <t>biegen</t>
-  </si>
-  <si>
-    <t>dienen</t>
-  </si>
-  <si>
-    <t>stoppen</t>
-  </si>
-  <si>
-    <t>gelten</t>
-  </si>
-  <si>
-    <t>altern</t>
-  </si>
-  <si>
-    <t>tollen</t>
-  </si>
-  <si>
-    <t>fliegen</t>
-  </si>
-  <si>
-    <t>fühlen</t>
-  </si>
-  <si>
-    <t>planen</t>
-  </si>
-  <si>
-    <t>langen</t>
-  </si>
-  <si>
-    <t>tropfen</t>
-  </si>
-  <si>
-    <t>lehnen</t>
-  </si>
-  <si>
-    <t>ändern</t>
-  </si>
-  <si>
-    <t>gründen</t>
-  </si>
-  <si>
-    <t>gnaden</t>
-  </si>
-  <si>
-    <t>räumen</t>
-  </si>
-  <si>
-    <t>betteln</t>
-  </si>
-  <si>
-    <t>prüfen</t>
-  </si>
-  <si>
-    <t>enden</t>
-  </si>
-  <si>
-    <t>dauern</t>
-  </si>
-  <si>
-    <t>hören</t>
-  </si>
-  <si>
-    <t>fragen</t>
-  </si>
-  <si>
-    <t>piepen</t>
-  </si>
-  <si>
-    <t>rücken</t>
-  </si>
-  <si>
-    <t>passen</t>
-  </si>
-  <si>
-    <t>scheinen</t>
-  </si>
-  <si>
-    <t>posten</t>
-  </si>
-  <si>
-    <t>duschen</t>
-  </si>
-  <si>
-    <t>sieben</t>
-  </si>
-  <si>
-    <t>jubeln</t>
-  </si>
-  <si>
-    <t>lügen</t>
-  </si>
-  <si>
-    <t>heulen</t>
-  </si>
-  <si>
-    <t>rächen</t>
-  </si>
-  <si>
-    <t>heben</t>
-  </si>
-  <si>
-    <t>reizen</t>
-  </si>
-  <si>
-    <t>saufen</t>
-  </si>
-  <si>
-    <t>treiben</t>
-  </si>
-  <si>
-    <t>morden</t>
-  </si>
-  <si>
-    <t>ahnen</t>
-  </si>
-  <si>
-    <t>proben</t>
-  </si>
-  <si>
-    <t>lernen</t>
-  </si>
-  <si>
-    <t>mauern</t>
-  </si>
-  <si>
-    <t>fehlen</t>
-  </si>
-  <si>
-    <t>bergen</t>
-  </si>
-  <si>
-    <t>frischen</t>
-  </si>
-  <si>
-    <t>messen</t>
-  </si>
-  <si>
-    <t>kennen</t>
-  </si>
-  <si>
-    <t>bleiben</t>
-  </si>
-  <si>
-    <t>liefern</t>
-  </si>
-  <si>
-    <t>dürfen</t>
-  </si>
-  <si>
-    <t>fliehen</t>
-  </si>
-  <si>
-    <t>bilden</t>
-  </si>
-  <si>
-    <t>danken</t>
-  </si>
-  <si>
-    <t>laufen</t>
-  </si>
-  <si>
-    <t>grenzen</t>
-  </si>
-  <si>
-    <t>füllen</t>
-  </si>
-  <si>
-    <t>lassen</t>
-  </si>
-  <si>
-    <t>zünden</t>
-  </si>
-  <si>
-    <t>klappen</t>
-  </si>
-  <si>
-    <t>münzen</t>
-  </si>
-  <si>
-    <t>küssen</t>
-  </si>
-  <si>
-    <t>segeln</t>
-  </si>
-  <si>
-    <t>stürzen</t>
+    <t>stürmen</t>
   </si>
   <si>
     <t>N/A</t>
